--- a/analysis/transient/xlsx/improved_transient_017.xlsx
+++ b/analysis/transient/xlsx/improved_transient_017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1) Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\transient\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1 - Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\transient\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B9EDAF-852B-415D-9C01-485167F2E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595BEDE7-2BA1-4300-84F8-3CC88E5189D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1680" windowWidth="28665" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="38400" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_transient_017" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
   <si>
-    <t>Based on 200 simulations and with 99.00% confidence</t>
-  </si>
-  <si>
     <t>NODE 1</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>class[2]</t>
+  </si>
+  <si>
+    <t>Based on 64 simulations and with 95.00% confidence</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" activeCellId="4" sqref="A55 A52 A49 A46 A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,131 +952,131 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.52640200000000004</v>
+        <v>0.52643300000000004</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>2.3800000000000001E-4</v>
+        <v>3.3599999999999998E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2.7974039999999998</v>
+        <v>2.7959870000000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>5.4590000000000003E-3</v>
+        <v>7.3680000000000004E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.79791500000000004</v>
+        <v>0.79675499999999999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>4.9509999999999997E-3</v>
+        <v>6.6470000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1.9994890000000001</v>
+        <v>1.9992319999999999</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>8.5999999999999998E-4</v>
+        <v>1.248E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>5.3134459999999999</v>
+        <v>5.3104519999999997</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>1.1490999999999999E-2</v>
+        <v>1.5454000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>1.5156130000000001</v>
+        <v>1.5133209999999999</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>9.7109999999999991E-3</v>
+        <v>1.3009E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>0.75956699999999999</v>
+        <v>0.75942600000000005</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>4.6799999999999999E-4</v>
+        <v>6.69E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1084,122 +1084,122 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.84747300000000003</v>
+        <v>0.84778200000000004</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>5.2999999999999998E-4</v>
+        <v>7.6400000000000003E-4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>3.5344190000000002</v>
+        <v>3.537811</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>3.558E-3</v>
+        <v>4.7850000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>0.334644</v>
+        <v>0.33591500000000002</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>2.4849999999999998E-3</v>
+        <v>3.3500000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>3.1997749999999998</v>
+        <v>3.2018960000000001</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>1.7960000000000001E-3</v>
+        <v>2.6129999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>4.1700400000000002</v>
+        <v>4.1725380000000003</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>5.4299999999999999E-3</v>
+        <v>7.6160000000000004E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>0.39484399999999997</v>
+        <v>0.39620300000000003</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>3.0309999999999998E-3</v>
+        <v>4.1019999999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>0.62919899999999995</v>
+        <v>0.62938899999999998</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>5.1400000000000003E-4</v>
+        <v>7.67E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1207,122 +1207,122 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>1.321385</v>
+        <v>1.3213200000000001</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>9.8799999999999995E-4</v>
+        <v>1.4660000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>3.390631</v>
+        <v>3.3816459999999999</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>8.3400000000000002E-3</v>
+        <v>1.2388E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>0.890401</v>
+        <v>0.88428200000000001</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>7.0099999999999997E-3</v>
+        <v>1.0489999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5002309999999999</v>
+        <v>2.4973640000000001</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>1.9620000000000002E-3</v>
+        <v>2.6489999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>2.5658110000000001</v>
+        <v>2.5591849999999998</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>7.1110000000000001E-3</v>
+        <v>1.1068E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>0.67382600000000004</v>
+        <v>0.66926699999999995</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>5.4900000000000001E-3</v>
+        <v>8.3549999999999996E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>0.63066199999999994</v>
+        <v>0.62997300000000001</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>7.0399999999999998E-4</v>
+        <v>1.0640000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -1330,318 +1330,318 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.37046800000000002</v>
+        <v>0.370531</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>1.4799999999999999E-4</v>
+        <v>2.1800000000000001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1">
-        <v>0.43232799999999999</v>
+        <v>0.43245099999999997</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>1.95E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1">
-        <v>2.588911</v>
+        <v>2.587599</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>2.3419999999999999E-3</v>
+        <v>2.663E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
-        <v>3.2647520000000001</v>
+        <v>3.259309</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>1.4187999999999999E-2</v>
+        <v>1.9900999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1">
-        <v>2.2744770000000001</v>
+        <v>2.2707989999999998</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>4.3239999999999997E-3</v>
+        <v>5.9220000000000002E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1">
-        <v>9.1954820000000002</v>
+        <v>9.1749650000000003</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>7.8932000000000002E-2</v>
+        <v>0.111216</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
-        <v>1.964534</v>
+        <v>1.9593830000000001</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>1.3958999999999999E-2</v>
+        <v>1.9625E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0.97407999999999995</v>
+        <v>16</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.97071799999999997</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="6">
-        <v>4.045E-3</v>
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5.6160000000000003E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
-        <v>7.8963320000000001</v>
+        <v>7.8759790000000001</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>7.8849000000000002E-2</v>
+        <v>0.111151</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>1.3002180000000001</v>
+        <v>1.2999259999999999</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>4.5399999999999998E-4</v>
+        <v>5.7499999999999999E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1">
-        <v>1.3003960000000001</v>
+        <v>1.300081</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
-        <v>5.0199999999999995E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1">
-        <v>1.2991490000000001</v>
+        <v>1.298986</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
-        <v>1.217E-3</v>
+        <v>1.8439999999999999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>8.8125210000000003</v>
+        <v>8.7963199999999997</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1">
-        <v>4.0119000000000002E-2</v>
+        <v>5.6355000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1">
-        <v>5.2609149999999998</v>
+        <v>5.2509160000000001</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
-        <v>1.1398999999999999E-2</v>
+        <v>1.5871E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1">
-        <v>3.5516070000000002</v>
+        <v>3.5454029999999999</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
-        <v>3.0648999999999999E-2</v>
+        <v>4.2869999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>5.3029390000000003</v>
+        <v>5.288138</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>3.8759000000000002E-2</v>
+        <v>5.4524000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1">
-        <v>2.2531089999999998</v>
+        <v>2.2446990000000002</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
-        <v>9.9430000000000004E-3</v>
+        <v>1.3880999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1">
-        <v>3.0498310000000002</v>
+        <v>3.0434389999999998</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1">
-        <v>3.0568000000000001E-2</v>
+        <v>4.2824000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>0.87739599999999995</v>
+        <v>0.87704599999999999</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
-        <v>4.7100000000000001E-4</v>
+        <v>6.3299999999999999E-4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="1">
-        <v>0.75195199999999995</v>
+        <v>0.75155400000000006</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1">
-        <v>4.5199999999999998E-4</v>
+        <v>6.1799999999999995E-4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1">
-        <v>0.125444</v>
+        <v>0.12549099999999999</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1">
-        <v>1.6899999999999999E-4</v>
+        <v>2.41E-4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -1649,49 +1649,49 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1">
-        <v>12.9872</v>
+        <v>12.9748</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
-        <v>1.9699999999999999E-2</v>
+        <v>2.86E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1">
-        <v>11.9969</v>
+        <v>11.9862</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>1.89E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>18.917899999999999</v>
+        <v>18.8904</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.1158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
